--- a/src/data-da21ttabc/DA21TTA.xlsx
+++ b/src/data-da21ttabc/DA21TTA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#\THỊ GIÁC MÁY TÍNH\attendance-cv-da21ttabc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#\THỊ GIÁC MÁY TÍNH\attendance-cv-da21ttabc\src\data-da21ttabc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,141 +19,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Họ lót</t>
-  </si>
-  <si>
-    <t>Tên</t>
-  </si>
-  <si>
     <t>Mã lớp</t>
   </si>
   <si>
     <t>Tên lớp</t>
   </si>
   <si>
-    <t>Nguyễn Tuấn</t>
-  </si>
-  <si>
-    <t>Anh</t>
-  </si>
-  <si>
     <t>DA21TTA</t>
   </si>
   <si>
     <t>ĐH Công nghệ thông tin A 2021</t>
   </si>
   <si>
-    <t>Đinh Lê Bảo</t>
-  </si>
-  <si>
-    <t>Duy</t>
-  </si>
-  <si>
-    <t>Lý Mỹ</t>
-  </si>
-  <si>
-    <t>Duyên</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Hải</t>
-  </si>
-  <si>
-    <t>Đăng</t>
-  </si>
-  <si>
-    <t>Trần Bá</t>
-  </si>
-  <si>
-    <t>Hiếu</t>
-  </si>
-  <si>
-    <t>Thượng Văn Anh</t>
-  </si>
-  <si>
-    <t>Khoa</t>
-  </si>
-  <si>
-    <t>Kiều Chí</t>
-  </si>
-  <si>
-    <t>Nguyện</t>
-  </si>
-  <si>
-    <t>Cao Duy</t>
-  </si>
-  <si>
-    <t>Nhân</t>
-  </si>
-  <si>
-    <t>Nguyễn Thiện</t>
-  </si>
-  <si>
-    <t>Phạm Minh</t>
-  </si>
-  <si>
-    <t>Thái</t>
-  </si>
-  <si>
-    <t>Trương Nguyễn Hoàng</t>
-  </si>
-  <si>
-    <t>Thanh</t>
-  </si>
-  <si>
     <t>DA21TTB</t>
   </si>
   <si>
     <t>ĐH Công nghệ thông tin B 2021</t>
   </si>
   <si>
-    <t>Trần Văn</t>
-  </si>
-  <si>
-    <t>Thành</t>
-  </si>
-  <si>
-    <t>Sỉ Chí</t>
-  </si>
-  <si>
-    <t>Thiện</t>
-  </si>
-  <si>
-    <t>Phan Minh</t>
-  </si>
-  <si>
-    <t>Thứ</t>
-  </si>
-  <si>
-    <t>Nguyễn Anh</t>
-  </si>
-  <si>
-    <t>Tuấn</t>
-  </si>
-  <si>
-    <t>Huỳnh Khải</t>
-  </si>
-  <si>
-    <t>Vinh</t>
-  </si>
-  <si>
-    <t>Bùi Cát</t>
-  </si>
-  <si>
-    <t>Vũ</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn</t>
-  </si>
-  <si>
-    <t>Vửng</t>
-  </si>
-  <si>
     <t>MSSV</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Anh</t>
+  </si>
+  <si>
+    <t>Đinh Lê Bảo Duy</t>
+  </si>
+  <si>
+    <t>Lý Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Hải Đăng</t>
+  </si>
+  <si>
+    <t>Trần Bá Hiếu</t>
+  </si>
+  <si>
+    <t>Thượng Văn Anh Khoa</t>
+  </si>
+  <si>
+    <t>Kiều Chí Nguyện</t>
+  </si>
+  <si>
+    <t>Cao Duy Nhân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thiện Nhân</t>
+  </si>
+  <si>
+    <t>Phạm Minh Thái</t>
+  </si>
+  <si>
+    <t>Trương Nguyễn Hoàng Thanh</t>
+  </si>
+  <si>
+    <t>Trần Văn Thành</t>
+  </si>
+  <si>
+    <t>Sỉ Chí Thiện</t>
+  </si>
+  <si>
+    <t>Phan Minh Thứ</t>
+  </si>
+  <si>
+    <t>Nguyễn Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Huỳnh Khải Vinh</t>
+  </si>
+  <si>
+    <t>Bùi Cát Vũ</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Vững</t>
+  </si>
+  <si>
+    <t>Họ tên</t>
   </si>
 </sst>
 </file>
@@ -197,10 +143,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,16 +499,16 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="30.75" customWidth="1"/>
     <col min="6" max="6" width="35.875" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
     <col min="8" max="8" width="30.875" customWidth="1"/>
@@ -564,379 +519,323 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>110121002</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>110121017</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>110121256</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>110121181</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B6" s="3">
+        <v>110121024</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B7" s="3">
+        <v>110121041</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B8" s="3">
+        <v>110121275</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>110121017</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B9" s="3">
+        <v>110121070</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B10" s="3">
+        <v>110121069</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>110121256</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B11" s="3">
+        <v>110121100</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B12" s="3">
+        <v>110121101</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>110121181</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B13" s="3">
+        <v>110121103</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B14" s="3">
+        <v>110121107</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>110121024</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B15" s="3">
+        <v>110121111</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B16" s="3">
+        <v>110121123</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>110121041</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B17" s="3">
+        <v>110121245</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B18" s="3">
+        <v>110121131</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>110121275</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>110121070</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>110121069</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>110121100</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B19" s="3">
+        <v>110121132</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>110121101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>110121103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>110121107</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>110121111</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>110121123</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>110121245</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>110121131</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>110121132</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
